--- a/results/multiclass/36/automl.xlsx
+++ b/results/multiclass/36/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.984 (0.984 Â± 0.000)</t>
+          <t>0.984 (0.984 ± 0.000)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:50 (00:05:02 Â± 00:00:08)</t>
+          <t>00:04:50 (00:05:02 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:04 (00:00:06 Â± 00:00:01)</t>
+          <t>00:00:04 (00:00:06 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.991 (0.982 Â± 0.005)</t>
+          <t>0.991 (0.982 ± 0.005)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:25 (00:01:27 Â± 00:00:47)</t>
+          <t>00:00:25 (00:01:27 ± 00:00:47)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.987 (0.974 Â± 0.007)</t>
+          <t>0.987 (0.974 ± 0.007)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:46 (00:01:04 Â± 00:00:12)</t>
+          <t>00:00:46 (00:01:04 ± 00:00:12)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.987 (0.973 Â± 0.009)</t>
+          <t>0.987 (0.973 ± 0.009)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:11 (00:05:22 Â± 00:00:14)</t>
+          <t>00:05:11 (00:05:22 ± 00:00:14)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.993 (0.985 Â± 0.006)</t>
+          <t>0.993 (0.985 ± 0.006)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:04 Â± 00:00:04)</t>
+          <t>00:04:56 (00:05:04 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:05 Â± 00:00:02)</t>
+          <t>00:00:00 (00:00:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.989 (0.976 Â± 0.006)</t>
+          <t>0.989 (0.976 ± 0.006)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:02 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.987 (0.980 Â± 0.004)</t>
+          <t>0.987 (0.980 ± 0.004)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:22 (00:06:07 Â± 00:01:49)</t>
+          <t>00:04:22 (00:06:07 ± 00:01:49)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.994 (0.984 Â± 0.005)</t>
+          <t>0.994 (0.984 ± 0.005)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:59 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.991 (0.981 Â± 0.007)</t>
+          <t>0.991 (0.981 ± 0.007)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.991 (0.983 Â± 0.005)</t>
+          <t>0.991 (0.983 ± 0.005)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.987 (0.977 Â± 0.006)</t>
+          <t>0.987 (0.977 ± 0.006)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:10 (00:02:34 Â± 00:00:17)</t>
+          <t>00:02:10 (00:02:34 ± 00:00:17)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.991 (0.976 Â± 0.008)</t>
+          <t>0.991 (0.976 ± 0.008)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:02 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.991 (0.979 Â± 0.006)</t>
+          <t>0.991 (0.979 ± 0.006)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:41 (00:00:45 Â± 00:00:01)</t>
+          <t>00:00:41 (00:00:45 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.987 (0.981 Â± 0.006)</t>
+          <t>0.987 (0.981 ± 0.006)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:01 (00:04:11 Â± 00:01:42)</t>
+          <t>00:00:01 (00:04:11 ± 00:01:42)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.994 (0.983 Â± 0.005)</t>
+          <t>0.994 (0.983 ± 0.005)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:01:05 (00:01:12 Â± 00:00:04)</t>
+          <t>00:01:05 (00:01:12 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.987 (0.970 Â± 0.017)</t>
+          <t>0.987 (0.970 ± 0.017)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:00:30 (00:01:57 Â± 00:01:31)</t>
+          <t>00:00:30 (00:01:57 ± 00:01:31)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
